--- a/demo/py_outputs/Village_Karnataka_hits.xlsx
+++ b/demo/py_outputs/Village_Karnataka_hits.xlsx
@@ -721,7 +721,7 @@
         <v>45</v>
       </c>
       <c r="J4">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
         <v>47</v>
@@ -926,7 +926,7 @@
         <v>45</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K9" t="s">
         <v>50</v>
@@ -1008,7 +1008,7 @@
         <v>45</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K11" t="s">
         <v>51</v>
@@ -1049,7 +1049,7 @@
         <v>44</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K12" t="s">
         <v>52</v>
